--- a/files/race.xlsx
+++ b/files/race.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="573">
   <si>
     <t xml:space="preserve">Occupation</t>
   </si>
@@ -103,9 +103,6 @@
     <t xml:space="preserve">Transportation, storage, and distribution managers</t>
   </si>
   <si>
-    <t xml:space="preserve">Farmers, ranchers, and other agricultural managers</t>
-  </si>
-  <si>
     <t xml:space="preserve">Construction managers</t>
   </si>
   <si>
@@ -1126,7 +1123,7 @@
     <t xml:space="preserve">Animal breeders</t>
   </si>
   <si>
-    <t xml:space="preserve">Graders and sorters, agricultural products</t>
+    <t xml:space="preserve">Graders and sorters, agricultural products ( farmers ) </t>
   </si>
   <si>
     <t xml:space="preserve">Miscellaneous agricultural workers</t>
@@ -1845,15 +1842,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="6" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="11" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1895,16 +1892,16 @@
   </sheetPr>
   <dimension ref="A1:G572"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A343" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A365" activeCellId="0" sqref="A365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="70.2712550607288"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.9919028340081"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="70.8056680161943"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2368,32 +2365,18 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="4" t="n">
-        <v>1018</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>95.4</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="G21" s="5" t="n">
-        <v>6.1</v>
-      </c>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>1081</v>
@@ -2416,7 +2399,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="4" t="n">
         <v>918</v>
@@ -2439,7 +2422,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="4" t="n">
         <v>129</v>
@@ -2462,7 +2445,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="4" t="n">
         <v>1210</v>
@@ -2485,7 +2468,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="4" t="n">
         <v>15</v>
@@ -2508,7 +2491,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="4" t="n">
         <v>19</v>
@@ -2531,7 +2514,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="4" t="n">
         <v>156</v>
@@ -2554,7 +2537,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="4" t="n">
         <v>671</v>
@@ -2577,7 +2560,7 @@
     </row>
     <row r="30" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="4" t="n">
         <v>16</v>
@@ -2600,7 +2583,7 @@
     </row>
     <row r="31" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="4" t="n">
         <v>27</v>
@@ -2623,7 +2606,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="4" t="n">
         <v>743</v>
@@ -2646,7 +2629,7 @@
     </row>
     <row r="33" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="4" t="n">
         <v>390</v>
@@ -2669,7 +2652,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="4" t="n">
         <v>11</v>
@@ -2692,7 +2675,7 @@
     </row>
     <row r="35" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="4" t="n">
         <v>4398</v>
@@ -2715,7 +2698,7 @@
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="4" t="n">
         <v>7574</v>
@@ -2738,7 +2721,7 @@
     </row>
     <row r="37" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="4" t="n">
         <v>50</v>
@@ -2761,7 +2744,7 @@
     </row>
     <row r="38" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>11</v>
@@ -2784,7 +2767,7 @@
     </row>
     <row r="39" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>194</v>
@@ -2807,7 +2790,7 @@
     </row>
     <row r="40" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="4" t="n">
         <v>270</v>
@@ -2830,7 +2813,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="4" t="n">
         <v>350</v>
@@ -2853,7 +2836,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="4" t="n">
         <v>260</v>
@@ -2876,7 +2859,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="4" t="n">
         <v>118</v>
@@ -2899,7 +2882,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="4" t="n">
         <v>736</v>
@@ -2922,7 +2905,7 @@
     </row>
     <row r="45" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="4" t="n">
         <v>59</v>
@@ -2945,7 +2928,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="4" t="n">
         <v>133</v>
@@ -2968,7 +2951,7 @@
     </row>
     <row r="47" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="4" t="n">
         <v>112</v>
@@ -2991,7 +2974,7 @@
     </row>
     <row r="48" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" s="4" t="n">
         <v>937</v>
@@ -3014,7 +2997,7 @@
     </row>
     <row r="49" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" s="4" t="n">
         <v>137</v>
@@ -3037,7 +3020,7 @@
     </row>
     <row r="50" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" s="4" t="n">
         <v>84</v>
@@ -3060,7 +3043,7 @@
     </row>
     <row r="51" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="4" t="n">
         <v>344</v>
@@ -3083,7 +3066,7 @@
     </row>
     <row r="52" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" s="4" t="n">
         <v>273</v>
@@ -3106,7 +3089,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="4" t="n">
         <v>1804</v>
@@ -3129,7 +3112,7 @@
     </row>
     <row r="54" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="4" t="n">
         <v>97</v>
@@ -3152,7 +3135,7 @@
     </row>
     <row r="55" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" s="4" t="n">
         <v>53</v>
@@ -3175,7 +3158,7 @@
     </row>
     <row r="56" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="4" t="n">
         <v>29</v>
@@ -3198,7 +3181,7 @@
     </row>
     <row r="57" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="4" t="n">
         <v>309</v>
@@ -3221,7 +3204,7 @@
     </row>
     <row r="58" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" s="4" t="n">
         <v>525</v>
@@ -3244,7 +3227,7 @@
     </row>
     <row r="59" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" s="4" t="n">
         <v>104</v>
@@ -3267,7 +3250,7 @@
     </row>
     <row r="60" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="4" t="n">
         <v>15</v>
@@ -3290,7 +3273,7 @@
     </row>
     <row r="61" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="4" t="n">
         <v>353</v>
@@ -3313,7 +3296,7 @@
     </row>
     <row r="62" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" s="4" t="n">
         <v>65</v>
@@ -3336,7 +3319,7 @@
     </row>
     <row r="63" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" s="4" t="n">
         <v>107</v>
@@ -3359,7 +3342,7 @@
     </row>
     <row r="64" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="4" t="n">
         <v>45</v>
@@ -3382,7 +3365,7 @@
     </row>
     <row r="65" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" s="4" t="n">
         <v>35522</v>
@@ -3405,7 +3388,7 @@
     </row>
     <row r="66" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" s="4" t="n">
         <v>4804</v>
@@ -3428,7 +3411,7 @@
     </row>
     <row r="67" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" s="4" t="n">
         <v>24</v>
@@ -3451,7 +3434,7 @@
     </row>
     <row r="68" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" s="4" t="n">
         <v>554</v>
@@ -3474,7 +3457,7 @@
     </row>
     <row r="69" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" s="4" t="n">
         <v>105</v>
@@ -3497,7 +3480,7 @@
     </row>
     <row r="70" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" s="4" t="n">
         <v>473</v>
@@ -3520,7 +3503,7 @@
     </row>
     <row r="71" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" s="4" t="n">
         <v>1536</v>
@@ -3543,7 +3526,7 @@
     </row>
     <row r="72" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" s="4" t="n">
         <v>204</v>
@@ -3566,7 +3549,7 @@
     </row>
     <row r="73" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" s="4" t="n">
         <v>532</v>
@@ -3589,7 +3572,7 @@
     </row>
     <row r="74" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74" s="4" t="n">
         <v>96</v>
@@ -3612,7 +3595,7 @@
     </row>
     <row r="75" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" s="4" t="n">
         <v>210</v>
@@ -3635,7 +3618,7 @@
     </row>
     <row r="76" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" s="4" t="n">
         <v>106</v>
@@ -3658,7 +3641,7 @@
     </row>
     <row r="77" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77" s="4" t="n">
         <v>693</v>
@@ -3681,7 +3664,7 @@
     </row>
     <row r="78" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78" s="4" t="n">
         <v>29</v>
@@ -3704,7 +3687,7 @@
     </row>
     <row r="79" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79" s="4" t="n">
         <v>3</v>
@@ -3727,7 +3710,7 @@
     </row>
     <row r="80" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80" s="4" t="n">
         <v>147</v>
@@ -3750,7 +3733,7 @@
     </row>
     <row r="81" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81" s="4" t="n">
         <v>87</v>
@@ -3773,7 +3756,7 @@
     </row>
     <row r="82" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82" s="4" t="n">
         <v>3</v>
@@ -3796,7 +3779,7 @@
     </row>
     <row r="83" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83" s="4" t="n">
         <v>3224</v>
@@ -3819,7 +3802,7 @@
     </row>
     <row r="84" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84" s="4" t="n">
         <v>253</v>
@@ -3842,7 +3825,7 @@
     </row>
     <row r="85" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85" s="4" t="n">
         <v>43</v>
@@ -3865,7 +3848,7 @@
     </row>
     <row r="86" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86" s="4" t="n">
         <v>148</v>
@@ -3888,7 +3871,7 @@
     </row>
     <row r="87" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87" s="4" t="n">
         <v>2</v>
@@ -3911,7 +3894,7 @@
     </row>
     <row r="88" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88" s="4" t="n">
         <v>17</v>
@@ -3934,7 +3917,7 @@
     </row>
     <row r="89" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89" s="4" t="n">
         <v>77</v>
@@ -3957,7 +3940,7 @@
     </row>
     <row r="90" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90" s="4" t="n">
         <v>461</v>
@@ -3980,7 +3963,7 @@
     </row>
     <row r="91" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B91" s="4" t="n">
         <v>80</v>
@@ -4003,7 +3986,7 @@
     </row>
     <row r="92" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92" s="4" t="n">
         <v>284</v>
@@ -4026,7 +4009,7 @@
     </row>
     <row r="93" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93" s="4" t="n">
         <v>38</v>
@@ -4049,7 +4032,7 @@
     </row>
     <row r="94" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B94" s="4" t="n">
         <v>221</v>
@@ -4072,7 +4055,7 @@
     </row>
     <row r="95" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95" s="4" t="n">
         <v>12</v>
@@ -4095,7 +4078,7 @@
     </row>
     <row r="96" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96" s="4" t="n">
         <v>32</v>
@@ -4118,7 +4101,7 @@
     </row>
     <row r="97" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97" s="4" t="n">
         <v>344</v>
@@ -4141,7 +4124,7 @@
     </row>
     <row r="98" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98" s="4" t="n">
         <v>11</v>
@@ -4164,7 +4147,7 @@
     </row>
     <row r="99" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99" s="4" t="n">
         <v>8</v>
@@ -4187,7 +4170,7 @@
     </row>
     <row r="100" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100" s="4" t="n">
         <v>24</v>
@@ -4210,7 +4193,7 @@
     </row>
     <row r="101" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101" s="4" t="n">
         <v>582</v>
@@ -4233,7 +4216,7 @@
     </row>
     <row r="102" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102" s="4" t="n">
         <v>137</v>
@@ -4256,7 +4239,7 @@
     </row>
     <row r="103" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103" s="4" t="n">
         <v>375</v>
@@ -4279,7 +4262,7 @@
     </row>
     <row r="104" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104" s="4" t="n">
         <v>73</v>
@@ -4302,7 +4285,7 @@
     </row>
     <row r="105" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105" s="4" t="n">
         <v>1431</v>
@@ -4325,7 +4308,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106" s="4" t="n">
         <v>32</v>
@@ -4348,7 +4331,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107" s="4" t="n">
         <v>98</v>
@@ -4371,7 +4354,7 @@
     </row>
     <row r="108" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" s="4" t="n">
         <v>29</v>
@@ -4394,7 +4377,7 @@
     </row>
     <row r="109" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109" s="4" t="n">
         <v>161</v>
@@ -4417,7 +4400,7 @@
     </row>
     <row r="110" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B110" s="4" t="n">
         <v>3</v>
@@ -4440,7 +4423,7 @@
     </row>
     <row r="111" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B111" s="4" t="n">
         <v>18</v>
@@ -4463,7 +4446,7 @@
     </row>
     <row r="112" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B112" s="4" t="n">
         <v>7</v>
@@ -4486,7 +4469,7 @@
     </row>
     <row r="113" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B113" s="4" t="n">
         <v>105</v>
@@ -4509,7 +4492,7 @@
     </row>
     <row r="114" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114" s="4" t="n">
         <v>84</v>
@@ -4532,7 +4515,7 @@
     </row>
     <row r="115" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B115" s="4" t="n">
         <v>301</v>
@@ -4555,7 +4538,7 @@
     </row>
     <row r="116" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B116" s="4" t="n">
         <v>28</v>
@@ -4578,7 +4561,7 @@
     </row>
     <row r="117" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117" s="4" t="n">
         <v>3</v>
@@ -4601,7 +4584,7 @@
     </row>
     <row r="118" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B118" s="4" t="n">
         <v>187</v>
@@ -4624,7 +4607,7 @@
     </row>
     <row r="119" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B119" s="4" t="n">
         <v>2</v>
@@ -4647,7 +4630,7 @@
     </row>
     <row r="120" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B120" s="4" t="n">
         <v>32</v>
@@ -4670,7 +4653,7 @@
     </row>
     <row r="121" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B121" s="4" t="n">
         <v>41</v>
@@ -4693,7 +4676,7 @@
     </row>
     <row r="122" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B122" s="4" t="n">
         <v>32</v>
@@ -4716,7 +4699,7 @@
     </row>
     <row r="123" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B123" s="4" t="n">
         <v>23</v>
@@ -4739,7 +4722,7 @@
     </row>
     <row r="124" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B124" s="4" t="n">
         <v>57</v>
@@ -4762,7 +4745,7 @@
     </row>
     <row r="125" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B125" s="4" t="n">
         <v>13</v>
@@ -4785,7 +4768,7 @@
     </row>
     <row r="126" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B126" s="4" t="n">
         <v>7</v>
@@ -4808,7 +4791,7 @@
     </row>
     <row r="127" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B127" s="4" t="n">
         <v>4</v>
@@ -4831,7 +4814,7 @@
     </row>
     <row r="128" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B128" s="4" t="n">
         <v>164</v>
@@ -4854,7 +4837,7 @@
     </row>
     <row r="129" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B129" s="4" t="n">
         <v>2635</v>
@@ -4877,7 +4860,7 @@
     </row>
     <row r="130" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B130" s="4" t="n">
         <v>853</v>
@@ -4900,7 +4883,7 @@
     </row>
     <row r="131" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B131" s="4" t="n">
         <v>802</v>
@@ -4923,7 +4906,7 @@
     </row>
     <row r="132" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B132" s="4" t="n">
         <v>99</v>
@@ -4946,7 +4929,7 @@
     </row>
     <row r="133" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B133" s="4" t="n">
         <v>232</v>
@@ -4969,7 +4952,7 @@
     </row>
     <row r="134" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B134" s="4" t="n">
         <v>76</v>
@@ -4992,7 +4975,7 @@
     </row>
     <row r="135" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B135" s="4" t="n">
         <v>406</v>
@@ -5015,7 +4998,7 @@
     </row>
     <row r="136" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136" s="4" t="n">
         <v>81</v>
@@ -5038,7 +5021,7 @@
     </row>
     <row r="137" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B137" s="4" t="n">
         <v>85</v>
@@ -5061,7 +5044,7 @@
     </row>
     <row r="138" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B138" s="4" t="n">
         <v>1827</v>
@@ -5084,7 +5067,7 @@
     </row>
     <row r="139" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B139" s="4" t="n">
         <v>1137</v>
@@ -5107,7 +5090,7 @@
     </row>
     <row r="140" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B140" s="4" t="n">
         <v>14</v>
@@ -5130,7 +5113,7 @@
     </row>
     <row r="141" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B141" s="4" t="n">
         <v>66</v>
@@ -5153,7 +5136,7 @@
     </row>
     <row r="142" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B142" s="4" t="n">
         <v>424</v>
@@ -5176,7 +5159,7 @@
     </row>
     <row r="143" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B143" s="4" t="n">
         <v>186</v>
@@ -5199,7 +5182,7 @@
     </row>
     <row r="144" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B144" s="4" t="n">
         <v>9215</v>
@@ -5222,7 +5205,7 @@
     </row>
     <row r="145" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B145" s="4" t="n">
         <v>1423</v>
@@ -5245,7 +5228,7 @@
     </row>
     <row r="146" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B146" s="4" t="n">
         <v>712</v>
@@ -5268,7 +5251,7 @@
     </row>
     <row r="147" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B147" s="4" t="n">
         <v>3268</v>
@@ -5291,7 +5274,7 @@
     </row>
     <row r="148" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B148" s="4" t="n">
         <v>1039</v>
@@ -5314,7 +5297,7 @@
     </row>
     <row r="149" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B149" s="4" t="n">
         <v>422</v>
@@ -5337,7 +5320,7 @@
     </row>
     <row r="150" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B150" s="4" t="n">
         <v>907</v>
@@ -5360,7 +5343,7 @@
     </row>
     <row r="151" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B151" s="4" t="n">
         <v>59</v>
@@ -5383,7 +5366,7 @@
     </row>
     <row r="152" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B152" s="4" t="n">
         <v>194</v>
@@ -5406,7 +5389,7 @@
     </row>
     <row r="153" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B153" s="4" t="n">
         <v>40</v>
@@ -5429,7 +5412,7 @@
     </row>
     <row r="154" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B154" s="4" t="n">
         <v>989</v>
@@ -5452,7 +5435,7 @@
     </row>
     <row r="155" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B155" s="4" t="n">
         <v>161</v>
@@ -5475,7 +5458,7 @@
     </row>
     <row r="156" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B156" s="4" t="n">
         <v>3246</v>
@@ -5498,7 +5481,7 @@
     </row>
     <row r="157" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B157" s="4" t="n">
         <v>236</v>
@@ -5521,7 +5504,7 @@
     </row>
     <row r="158" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B158" s="4" t="n">
         <v>908</v>
@@ -5544,7 +5527,7 @@
     </row>
     <row r="159" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B159" s="4" t="n">
         <v>40</v>
@@ -5567,7 +5550,7 @@
     </row>
     <row r="160" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B160" s="4" t="n">
         <v>180</v>
@@ -5590,7 +5573,7 @@
     </row>
     <row r="161" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B161" s="4" t="n">
         <v>345</v>
@@ -5613,7 +5596,7 @@
     </row>
     <row r="162" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B162" s="4" t="n">
         <v>21</v>
@@ -5636,7 +5619,7 @@
     </row>
     <row r="163" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B163" s="4" t="n">
         <v>188</v>
@@ -5659,7 +5642,7 @@
     </row>
     <row r="164" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B164" s="4" t="n">
         <v>67</v>
@@ -5682,7 +5665,7 @@
     </row>
     <row r="165" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B165" s="4" t="n">
         <v>50</v>
@@ -5705,7 +5688,7 @@
     </row>
     <row r="166" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B166" s="4" t="n">
         <v>84</v>
@@ -5728,7 +5711,7 @@
     </row>
     <row r="167" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B167" s="4" t="n">
         <v>118</v>
@@ -5751,7 +5734,7 @@
     </row>
     <row r="168" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B168" s="4" t="n">
         <v>174</v>
@@ -5774,7 +5757,7 @@
     </row>
     <row r="169" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B169" s="4" t="n">
         <v>76</v>
@@ -5797,7 +5780,7 @@
     </row>
     <row r="170" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B170" s="4" t="n">
         <v>226</v>
@@ -5820,7 +5803,7 @@
     </row>
     <row r="171" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B171" s="4" t="n">
         <v>112</v>
@@ -5843,7 +5826,7 @@
     </row>
     <row r="172" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B172" s="4" t="n">
         <v>119</v>
@@ -5866,7 +5849,7 @@
     </row>
     <row r="173" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B173" s="4" t="n">
         <v>214</v>
@@ -5889,7 +5872,7 @@
     </row>
     <row r="174" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B174" s="4" t="n">
         <v>82</v>
@@ -5912,7 +5895,7 @@
     </row>
     <row r="175" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B175" s="4" t="n">
         <v>5</v>
@@ -5935,7 +5918,7 @@
     </row>
     <row r="176" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B176" s="4" t="n">
         <v>9141</v>
@@ -5958,7 +5941,7 @@
     </row>
     <row r="177" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B177" s="4" t="n">
         <v>51</v>
@@ -5981,7 +5964,7 @@
     </row>
     <row r="178" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B178" s="4" t="n">
         <v>159</v>
@@ -6004,7 +5987,7 @@
     </row>
     <row r="179" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B179" s="4" t="n">
         <v>114</v>
@@ -6027,7 +6010,7 @@
     </row>
     <row r="180" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B180" s="4" t="n">
         <v>51</v>
@@ -6050,7 +6033,7 @@
     </row>
     <row r="181" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B181" s="4" t="n">
         <v>342</v>
@@ -6073,7 +6056,7 @@
     </row>
     <row r="182" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B182" s="4" t="n">
         <v>1079</v>
@@ -6096,7 +6079,7 @@
     </row>
     <row r="183" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B183" s="4" t="n">
         <v>116</v>
@@ -6119,7 +6102,7 @@
     </row>
     <row r="184" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B184" s="4" t="n">
         <v>12</v>
@@ -6142,7 +6125,7 @@
     </row>
     <row r="185" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B185" s="4" t="n">
         <v>15</v>
@@ -6165,7 +6148,7 @@
     </row>
     <row r="186" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B186" s="4" t="n">
         <v>122</v>
@@ -6188,7 +6171,7 @@
     </row>
     <row r="187" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B187" s="4" t="n">
         <v>258</v>
@@ -6211,7 +6194,7 @@
     </row>
     <row r="188" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B188" s="4" t="n">
         <v>10</v>
@@ -6234,7 +6217,7 @@
     </row>
     <row r="189" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B189" s="4" t="n">
         <v>7</v>
@@ -6257,7 +6240,7 @@
     </row>
     <row r="190" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B190" s="4" t="n">
         <v>100</v>
@@ -6280,7 +6263,7 @@
     </row>
     <row r="191" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B191" s="4" t="n">
         <v>141</v>
@@ -6303,7 +6286,7 @@
     </row>
     <row r="192" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B192" s="4" t="n">
         <v>5</v>
@@ -6326,7 +6309,7 @@
     </row>
     <row r="193" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B193" s="4" t="n">
         <v>221</v>
@@ -6349,7 +6332,7 @@
     </row>
     <row r="194" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B194" s="4" t="n">
         <v>89</v>
@@ -6372,7 +6355,7 @@
     </row>
     <row r="195" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B195" s="4" t="n">
         <v>3159</v>
@@ -6395,7 +6378,7 @@
     </row>
     <row r="196" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B196" s="4" t="n">
         <v>35</v>
@@ -6418,7 +6401,7 @@
     </row>
     <row r="197" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B197" s="4" t="n">
         <v>7</v>
@@ -6441,7 +6424,7 @@
     </row>
     <row r="198" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B198" s="4" t="n">
         <v>175</v>
@@ -6464,7 +6447,7 @@
     </row>
     <row r="199" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B199" s="4" t="n">
         <v>39</v>
@@ -6487,7 +6470,7 @@
     </row>
     <row r="200" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B200" s="4" t="n">
         <v>376</v>
@@ -6510,7 +6493,7 @@
     </row>
     <row r="201" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B201" s="4" t="n">
         <v>168</v>
@@ -6533,7 +6516,7 @@
     </row>
     <row r="202" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B202" s="4" t="n">
         <v>319</v>
@@ -6556,7 +6539,7 @@
     </row>
     <row r="203" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B203" s="4" t="n">
         <v>223</v>
@@ -6579,7 +6562,7 @@
     </row>
     <row r="204" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B204" s="4" t="n">
         <v>632</v>
@@ -6602,7 +6585,7 @@
     </row>
     <row r="205" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B205" s="4" t="n">
         <v>630</v>
@@ -6625,7 +6608,7 @@
     </row>
     <row r="206" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B206" s="4" t="n">
         <v>167</v>
@@ -6648,7 +6631,7 @@
     </row>
     <row r="207" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B207" s="4" t="n">
         <v>48</v>
@@ -6671,7 +6654,7 @@
     </row>
     <row r="208" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B208" s="4" t="n">
         <v>160</v>
@@ -6694,7 +6677,7 @@
     </row>
     <row r="209" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B209" s="4" t="n">
         <v>110</v>
@@ -6720,7 +6703,7 @@
     </row>
     <row r="211" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B211" s="4" t="n">
         <v>26751</v>
@@ -6743,7 +6726,7 @@
     </row>
     <row r="212" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B212" s="4" t="n">
         <v>3506</v>
@@ -6766,7 +6749,7 @@
     </row>
     <row r="213" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B213" s="4" t="n">
         <v>1936</v>
@@ -6789,7 +6772,7 @@
     </row>
     <row r="214" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B214" s="4" t="n">
         <v>27</v>
@@ -6812,7 +6795,7 @@
     </row>
     <row r="215" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B215" s="4" t="n">
         <v>83</v>
@@ -6835,7 +6818,7 @@
     </row>
     <row r="216" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B216" s="4" t="n">
         <v>172</v>
@@ -6858,7 +6841,7 @@
     </row>
     <row r="217" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B217" s="4" t="n">
         <v>299</v>
@@ -6881,7 +6864,7 @@
     </row>
     <row r="218" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B218" s="4" t="n">
         <v>539</v>
@@ -6904,7 +6887,7 @@
     </row>
     <row r="219" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B219" s="4" t="n">
         <v>36</v>
@@ -6927,7 +6910,7 @@
     </row>
     <row r="220" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B220" s="4" t="n">
         <v>39</v>
@@ -6950,7 +6933,7 @@
     </row>
     <row r="221" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B221" s="4" t="n">
         <v>61</v>
@@ -6973,7 +6956,7 @@
     </row>
     <row r="222" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B222" s="4" t="n">
         <v>112</v>
@@ -6996,7 +6979,7 @@
     </row>
     <row r="223" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B223" s="4" t="n">
         <v>200</v>
@@ -7019,7 +7002,7 @@
     </row>
     <row r="224" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B224" s="4" t="n">
         <v>3113</v>
@@ -7042,7 +7025,7 @@
     </row>
     <row r="225" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B225" s="4" t="n">
         <v>52</v>
@@ -7065,7 +7048,7 @@
     </row>
     <row r="226" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B226" s="4" t="n">
         <v>95</v>
@@ -7088,7 +7071,7 @@
     </row>
     <row r="227" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B227" s="4" t="n">
         <v>44</v>
@@ -7111,7 +7094,7 @@
     </row>
     <row r="228" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B228" s="4" t="n">
         <v>72</v>
@@ -7134,7 +7117,7 @@
     </row>
     <row r="229" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B229" s="4" t="n">
         <v>283</v>
@@ -7157,7 +7140,7 @@
     </row>
     <row r="230" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B230" s="4" t="n">
         <v>27</v>
@@ -7180,7 +7163,7 @@
     </row>
     <row r="231" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B231" s="4" t="n">
         <v>408</v>
@@ -7203,7 +7186,7 @@
     </row>
     <row r="232" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B232" s="4" t="n">
         <v>136</v>
@@ -7226,7 +7209,7 @@
     </row>
     <row r="233" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B233" s="4" t="n">
         <v>4</v>
@@ -7249,7 +7232,7 @@
     </row>
     <row r="234" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B234" s="4" t="n">
         <v>6</v>
@@ -7272,7 +7255,7 @@
     </row>
     <row r="235" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B235" s="4" t="n">
         <v>704</v>
@@ -7295,7 +7278,7 @@
     </row>
     <row r="236" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B236" s="4" t="n">
         <v>7</v>
@@ -7318,7 +7301,7 @@
     </row>
     <row r="237" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B237" s="4" t="n">
         <v>15</v>
@@ -7341,7 +7324,7 @@
     </row>
     <row r="238" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B238" s="4" t="n">
         <v>94</v>
@@ -7364,7 +7347,7 @@
     </row>
     <row r="239" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B239" s="4" t="n">
         <v>920</v>
@@ -7387,7 +7370,7 @@
     </row>
     <row r="240" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B240" s="4" t="n">
         <v>63</v>
@@ -7410,7 +7393,7 @@
     </row>
     <row r="241" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B241" s="4" t="n">
         <v>46</v>
@@ -7433,7 +7416,7 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B242" s="4" t="n">
         <v>136</v>
@@ -7456,7 +7439,7 @@
     </row>
     <row r="243" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B243" s="4" t="n">
         <v>8305</v>
@@ -7479,7 +7462,7 @@
     </row>
     <row r="244" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B244" s="4" t="n">
         <v>465</v>
@@ -7502,7 +7485,7 @@
     </row>
     <row r="245" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B245" s="4" t="n">
         <v>519</v>
@@ -7525,7 +7508,7 @@
     </row>
     <row r="246" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B246" s="4" t="n">
         <v>2079</v>
@@ -7548,7 +7531,7 @@
     </row>
     <row r="247" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B247" s="4" t="n">
         <v>1068</v>
@@ -7571,7 +7554,7 @@
     </row>
     <row r="248" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B248" s="4" t="n">
         <v>417</v>
@@ -7594,7 +7577,7 @@
     </row>
     <row r="249" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B249" s="4" t="n">
         <v>372</v>
@@ -7617,7 +7600,7 @@
     </row>
     <row r="250" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B250" s="4" t="n">
         <v>225</v>
@@ -7640,7 +7623,7 @@
     </row>
     <row r="251" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B251" s="4" t="n">
         <v>2016</v>
@@ -7663,7 +7646,7 @@
     </row>
     <row r="252" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B252" s="4" t="n">
         <v>207</v>
@@ -7686,7 +7669,7 @@
     </row>
     <row r="253" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B253" s="4" t="n">
         <v>334</v>
@@ -7709,7 +7692,7 @@
     </row>
     <row r="254" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B254" s="4" t="n">
         <v>274</v>
@@ -7732,7 +7715,7 @@
     </row>
     <row r="255" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B255" s="4" t="n">
         <v>324</v>
@@ -7755,7 +7738,7 @@
     </row>
     <row r="256" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B256" s="4" t="n">
         <v>4</v>
@@ -7778,7 +7761,7 @@
     </row>
     <row r="257" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B257" s="4" t="n">
         <v>5888</v>
@@ -7801,7 +7784,7 @@
     </row>
     <row r="258" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B258" s="4" t="n">
         <v>326</v>
@@ -7824,7 +7807,7 @@
     </row>
     <row r="259" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B259" s="4" t="n">
         <v>255</v>
@@ -7847,7 +7830,7 @@
     </row>
     <row r="260" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B260" s="4" t="n">
         <v>2307</v>
@@ -7870,7 +7853,7 @@
     </row>
     <row r="261" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B261" s="4" t="n">
         <v>1527</v>
@@ -7893,7 +7876,7 @@
     </row>
     <row r="262" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B262" s="4" t="n">
         <v>108</v>
@@ -7916,7 +7899,7 @@
     </row>
     <row r="263" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B263" s="4" t="n">
         <v>1365</v>
@@ -7939,7 +7922,7 @@
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B264" s="4" t="n">
         <v>5939</v>
@@ -7962,7 +7945,7 @@
     </row>
     <row r="265" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B265" s="4" t="n">
         <v>208</v>
@@ -7985,7 +7968,7 @@
     </row>
     <row r="266" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B266" s="4" t="n">
         <v>232</v>
@@ -8008,7 +7991,7 @@
     </row>
     <row r="267" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B267" s="4" t="n">
         <v>49</v>
@@ -8031,7 +8014,7 @@
     </row>
     <row r="268" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B268" s="4" t="n">
         <v>263</v>
@@ -8054,7 +8037,7 @@
     </row>
     <row r="269" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B269" s="4" t="n">
         <v>90</v>
@@ -8077,7 +8060,7 @@
     </row>
     <row r="270" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B270" s="4" t="n">
         <v>1</v>
@@ -8100,7 +8083,7 @@
     </row>
     <row r="271" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B271" s="4" t="n">
         <v>37</v>
@@ -8123,7 +8106,7 @@
     </row>
     <row r="272" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B272" s="4" t="n">
         <v>224</v>
@@ -8146,7 +8129,7 @@
     </row>
     <row r="273" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B273" s="4" t="n">
         <v>17</v>
@@ -8169,7 +8152,7 @@
     </row>
     <row r="274" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B274" s="4" t="n">
         <v>42</v>
@@ -8192,7 +8175,7 @@
     </row>
     <row r="275" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B275" s="4" t="n">
         <v>135</v>
@@ -8215,7 +8198,7 @@
     </row>
     <row r="276" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B276" s="4" t="n">
         <v>806</v>
@@ -8238,7 +8221,7 @@
     </row>
     <row r="277" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B277" s="4" t="n">
         <v>397</v>
@@ -8261,7 +8244,7 @@
     </row>
     <row r="278" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B278" s="4" t="n">
         <v>89</v>
@@ -8284,7 +8267,7 @@
     </row>
     <row r="279" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B279" s="4" t="n">
         <v>68</v>
@@ -8307,7 +8290,7 @@
     </row>
     <row r="280" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B280" s="4" t="n">
         <v>1225</v>
@@ -8330,7 +8313,7 @@
     </row>
     <row r="281" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B281" s="4" t="n">
         <v>1365</v>
@@ -8353,7 +8336,7 @@
     </row>
     <row r="282" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B282" s="4" t="n">
         <v>480</v>
@@ -8376,7 +8359,7 @@
     </row>
     <row r="283" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B283" s="4" t="n">
         <v>44</v>
@@ -8399,7 +8382,7 @@
     </row>
     <row r="284" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B284" s="4" t="n">
         <v>167</v>
@@ -8425,7 +8408,7 @@
     </row>
     <row r="286" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B286" s="4" t="n">
         <v>33566</v>
@@ -8448,7 +8431,7 @@
     </row>
     <row r="287" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B287" s="4" t="n">
         <v>15815</v>
@@ -8471,7 +8454,7 @@
     </row>
     <row r="288" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B288" s="4" t="n">
         <v>3272</v>
@@ -8494,7 +8477,7 @@
     </row>
     <row r="289" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B289" s="4" t="n">
         <v>1220</v>
@@ -8517,7 +8500,7 @@
     </row>
     <row r="290" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B290" s="4" t="n">
         <v>3253</v>
@@ -8540,7 +8523,7 @@
     </row>
     <row r="291" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B291" s="4" t="n">
         <v>109</v>
@@ -8563,7 +8546,7 @@
     </row>
     <row r="292" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B292" s="4" t="n">
         <v>130</v>
@@ -8586,7 +8569,7 @@
     </row>
     <row r="293" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B293" s="4" t="n">
         <v>3235</v>
@@ -8609,7 +8592,7 @@
     </row>
     <row r="294" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B294" s="4" t="n">
         <v>241</v>
@@ -8632,7 +8615,7 @@
     </row>
     <row r="295" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B295" s="4" t="n">
         <v>624</v>
@@ -8655,7 +8638,7 @@
     </row>
     <row r="296" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B296" s="4" t="n">
         <v>262</v>
@@ -8678,7 +8661,7 @@
     </row>
     <row r="297" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B297" s="4" t="n">
         <v>89</v>
@@ -8701,7 +8684,7 @@
     </row>
     <row r="298" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B298" s="4" t="n">
         <v>525</v>
@@ -8724,7 +8707,7 @@
     </row>
     <row r="299" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B299" s="4" t="n">
         <v>1264</v>
@@ -8747,7 +8730,7 @@
     </row>
     <row r="300" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B300" s="4" t="n">
         <v>61</v>
@@ -8770,7 +8753,7 @@
     </row>
     <row r="301" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B301" s="4" t="n">
         <v>997</v>
@@ -8793,7 +8776,7 @@
     </row>
     <row r="302" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B302" s="4" t="n">
         <v>35</v>
@@ -8816,7 +8799,7 @@
     </row>
     <row r="303" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B303" s="4" t="n">
         <v>58</v>
@@ -8839,7 +8822,7 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B304" s="4" t="n">
         <v>166</v>
@@ -8862,7 +8845,7 @@
     </row>
     <row r="305" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B305" s="4" t="n">
         <v>276</v>
@@ -8885,7 +8868,7 @@
     </row>
     <row r="306" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B306" s="4" t="n">
         <v>17751</v>
@@ -8908,7 +8891,7 @@
     </row>
     <row r="307" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B307" s="4" t="n">
         <v>1425</v>
@@ -8931,7 +8914,7 @@
     </row>
     <row r="308" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B308" s="4" t="n">
         <v>23</v>
@@ -8954,7 +8937,7 @@
     </row>
     <row r="309" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B309" s="4" t="n">
         <v>47</v>
@@ -8977,7 +8960,7 @@
     </row>
     <row r="310" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B310" s="4" t="n">
         <v>9</v>
@@ -9000,7 +8983,7 @@
     </row>
     <row r="311" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B311" s="4" t="n">
         <v>139</v>
@@ -9023,7 +9006,7 @@
     </row>
     <row r="312" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B312" s="4" t="n">
         <v>473</v>
@@ -9046,7 +9029,7 @@
     </row>
     <row r="313" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B313" s="4" t="n">
         <v>1089</v>
@@ -9069,7 +9052,7 @@
     </row>
     <row r="314" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B314" s="4" t="n">
         <v>14</v>
@@ -9092,7 +9075,7 @@
     </row>
     <row r="315" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B315" s="4" t="n">
         <v>129</v>
@@ -9115,7 +9098,7 @@
     </row>
     <row r="316" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B316" s="4" t="n">
         <v>30</v>
@@ -9138,7 +9121,7 @@
     </row>
     <row r="317" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B317" s="4" t="n">
         <v>306</v>
@@ -9161,7 +9144,7 @@
     </row>
     <row r="318" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B318" s="4" t="n">
         <v>82</v>
@@ -9184,7 +9167,7 @@
     </row>
     <row r="319" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B319" s="4" t="n">
         <v>7</v>
@@ -9207,7 +9190,7 @@
     </row>
     <row r="320" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B320" s="4" t="n">
         <v>7</v>
@@ -9230,7 +9213,7 @@
     </row>
     <row r="321" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B321" s="4" t="n">
         <v>90</v>
@@ -9253,7 +9236,7 @@
     </row>
     <row r="322" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B322" s="4" t="n">
         <v>55</v>
@@ -9276,7 +9259,7 @@
     </row>
     <row r="323" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B323" s="4" t="n">
         <v>2494</v>
@@ -9299,7 +9282,7 @@
     </row>
     <row r="324" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B324" s="4" t="n">
         <v>62</v>
@@ -9322,7 +9305,7 @@
     </row>
     <row r="325" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B325" s="4" t="n">
         <v>182</v>
@@ -9345,7 +9328,7 @@
     </row>
     <row r="326" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B326" s="4" t="n">
         <v>125</v>
@@ -9368,7 +9351,7 @@
     </row>
     <row r="327" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B327" s="4" t="n">
         <v>142</v>
@@ -9391,7 +9374,7 @@
     </row>
     <row r="328" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B328" s="4" t="n">
         <v>96</v>
@@ -9414,7 +9397,7 @@
     </row>
     <row r="329" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B329" s="4" t="n">
         <v>120</v>
@@ -9437,7 +9420,7 @@
     </row>
     <row r="330" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B330" s="4" t="n">
         <v>32</v>
@@ -9460,7 +9443,7 @@
     </row>
     <row r="331" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B331" s="4" t="n">
         <v>107</v>
@@ -9483,7 +9466,7 @@
     </row>
     <row r="332" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B332" s="4" t="n">
         <v>45</v>
@@ -9506,7 +9489,7 @@
     </row>
     <row r="333" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B333" s="4" t="n">
         <v>1267</v>
@@ -9529,7 +9512,7 @@
     </row>
     <row r="334" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B334" s="4" t="n">
         <v>127</v>
@@ -9552,7 +9535,7 @@
     </row>
     <row r="335" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B335" s="4" t="n">
         <v>110</v>
@@ -9575,7 +9558,7 @@
     </row>
     <row r="336" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B336" s="4" t="n">
         <v>16</v>
@@ -9598,7 +9581,7 @@
     </row>
     <row r="337" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B337" s="4" t="n">
         <v>239</v>
@@ -9621,7 +9604,7 @@
     </row>
     <row r="338" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B338" s="4" t="n">
         <v>292</v>
@@ -9644,7 +9627,7 @@
     </row>
     <row r="339" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B339" s="4" t="n">
         <v>18</v>
@@ -9667,7 +9650,7 @@
     </row>
     <row r="340" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B340" s="4" t="n">
         <v>111</v>
@@ -9690,7 +9673,7 @@
     </row>
     <row r="341" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B341" s="4" t="n">
         <v>306</v>
@@ -9713,7 +9696,7 @@
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B342" s="4" t="n">
         <v>50</v>
@@ -9736,7 +9719,7 @@
     </row>
     <row r="343" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B343" s="4" t="n">
         <v>270</v>
@@ -9759,7 +9742,7 @@
     </row>
     <row r="344" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B344" s="4" t="n">
         <v>623</v>
@@ -9782,7 +9765,7 @@
     </row>
     <row r="345" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B345" s="4" t="n">
         <v>1525</v>
@@ -9805,7 +9788,7 @@
     </row>
     <row r="346" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B346" s="4" t="n">
         <v>52</v>
@@ -9828,7 +9811,7 @@
     </row>
     <row r="347" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B347" s="4" t="n">
         <v>2769</v>
@@ -9851,7 +9834,7 @@
     </row>
     <row r="348" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B348" s="4" t="n">
         <v>73</v>
@@ -9874,7 +9857,7 @@
     </row>
     <row r="349" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B349" s="4" t="n">
         <v>267</v>
@@ -9897,7 +9880,7 @@
     </row>
     <row r="350" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B350" s="4" t="n">
         <v>94</v>
@@ -9920,7 +9903,7 @@
     </row>
     <row r="351" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B351" s="4" t="n">
         <v>2</v>
@@ -9943,7 +9926,7 @@
     </row>
     <row r="352" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B352" s="4" t="n">
         <v>237</v>
@@ -9966,7 +9949,7 @@
     </row>
     <row r="353" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B353" s="4" t="n">
         <v>61</v>
@@ -9989,7 +9972,7 @@
     </row>
     <row r="354" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B354" s="4" t="n">
         <v>1271</v>
@@ -10012,7 +9995,7 @@
     </row>
     <row r="355" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B355" s="4" t="n">
         <v>33</v>
@@ -10035,7 +10018,7 @@
     </row>
     <row r="356" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B356" s="4" t="n">
         <v>10</v>
@@ -10058,7 +10041,7 @@
     </row>
     <row r="357" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B357" s="4" t="n">
         <v>21</v>
@@ -10081,7 +10064,7 @@
     </row>
     <row r="358" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B358" s="4" t="n">
         <v>576</v>
@@ -10107,7 +10090,7 @@
     </row>
     <row r="360" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B360" s="4" t="n">
         <v>14193</v>
@@ -10130,7 +10113,7 @@
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B361" s="4" t="n">
         <v>1184</v>
@@ -10153,7 +10136,7 @@
     </row>
     <row r="362" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B362" s="4" t="n">
         <v>62</v>
@@ -10176,7 +10159,7 @@
     </row>
     <row r="363" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B363" s="4" t="n">
         <v>18</v>
@@ -10199,7 +10182,7 @@
     </row>
     <row r="364" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B364" s="4" t="n">
         <v>2</v>
@@ -10220,9 +10203,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B365" s="4" t="n">
         <v>110</v>
@@ -10245,7 +10228,7 @@
     </row>
     <row r="366" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B366" s="4" t="n">
         <v>854</v>
@@ -10268,7 +10251,7 @@
     </row>
     <row r="367" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B367" s="4" t="n">
         <v>44</v>
@@ -10291,7 +10274,7 @@
     </row>
     <row r="368" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B368" s="4" t="n">
         <v>1</v>
@@ -10314,7 +10297,7 @@
     </row>
     <row r="369" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B369" s="4" t="n">
         <v>27</v>
@@ -10337,7 +10320,7 @@
     </row>
     <row r="370" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B370" s="4" t="n">
         <v>66</v>
@@ -10360,7 +10343,7 @@
     </row>
     <row r="371" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B371" s="4" t="n">
         <v>8031</v>
@@ -10383,7 +10366,7 @@
     </row>
     <row r="372" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B372" s="4" t="n">
         <v>639</v>
@@ -10406,7 +10389,7 @@
     </row>
     <row r="373" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B373" s="4" t="n">
         <v>15</v>
@@ -10429,7 +10412,7 @@
     </row>
     <row r="374" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B374" s="4" t="n">
         <v>166</v>
@@ -10452,7 +10435,7 @@
     </row>
     <row r="375" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B375" s="4" t="n">
         <v>1351</v>
@@ -10475,7 +10458,7 @@
     </row>
     <row r="376" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B376" s="4" t="n">
         <v>183</v>
@@ -10498,7 +10481,7 @@
     </row>
     <row r="377" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B377" s="4" t="n">
         <v>54</v>
@@ -10521,7 +10504,7 @@
     </row>
     <row r="378" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B378" s="4" t="n">
         <v>1946</v>
@@ -10544,7 +10527,7 @@
     </row>
     <row r="379" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B379" s="4" t="n">
         <v>15</v>
@@ -10567,7 +10550,7 @@
     </row>
     <row r="380" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B380" s="4" t="n">
         <v>2</v>
@@ -10590,7 +10573,7 @@
     </row>
     <row r="381" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B381" s="4" t="n">
         <v>358</v>
@@ -10613,7 +10596,7 @@
     </row>
     <row r="382" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B382" s="4" t="n">
         <v>156</v>
@@ -10636,7 +10619,7 @@
     </row>
     <row r="383" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B383" s="4" t="n">
         <v>857</v>
@@ -10659,7 +10642,7 @@
     </row>
     <row r="384" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B384" s="4" t="n">
         <v>44</v>
@@ -10682,7 +10665,7 @@
     </row>
     <row r="385" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B385" s="4" t="n">
         <v>58</v>
@@ -10705,7 +10688,7 @@
     </row>
     <row r="386" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B386" s="4" t="n">
         <v>540</v>
@@ -10728,7 +10711,7 @@
     </row>
     <row r="387" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B387" s="4" t="n">
         <v>4</v>
@@ -10751,7 +10734,7 @@
     </row>
     <row r="388" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B388" s="4" t="n">
         <v>600</v>
@@ -10774,7 +10757,7 @@
     </row>
     <row r="389" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B389" s="4" t="n">
         <v>27</v>
@@ -10797,7 +10780,7 @@
     </row>
     <row r="390" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B390" s="4" t="n">
         <v>12</v>
@@ -10820,7 +10803,7 @@
     </row>
     <row r="391" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B391" s="4" t="n">
         <v>220</v>
@@ -10843,7 +10826,7 @@
     </row>
     <row r="392" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B392" s="4" t="n">
         <v>137</v>
@@ -10866,7 +10849,7 @@
     </row>
     <row r="393" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B393" s="4" t="n">
         <v>43</v>
@@ -10889,7 +10872,7 @@
     </row>
     <row r="394" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B394" s="4" t="n">
         <v>11</v>
@@ -10912,7 +10895,7 @@
     </row>
     <row r="395" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B395" s="4" t="n">
         <v>69</v>
@@ -10935,7 +10918,7 @@
     </row>
     <row r="396" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B396" s="4" t="n">
         <v>89</v>
@@ -10958,7 +10941,7 @@
     </row>
     <row r="397" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B397" s="4" t="n">
         <v>40</v>
@@ -10981,7 +10964,7 @@
     </row>
     <row r="398" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B398" s="4" t="n">
         <v>34</v>
@@ -11004,7 +10987,7 @@
     </row>
     <row r="399" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B399" s="4" t="n">
         <v>30</v>
@@ -11027,7 +11010,7 @@
     </row>
     <row r="400" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B400" s="4" t="n">
         <v>101</v>
@@ -11050,7 +11033,7 @@
     </row>
     <row r="401" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B401" s="4" t="n">
         <v>17</v>
@@ -11073,7 +11056,7 @@
     </row>
     <row r="402" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B402" s="4" t="n">
         <v>10</v>
@@ -11096,7 +11079,7 @@
     </row>
     <row r="403" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B403" s="4" t="n">
         <v>24</v>
@@ -11119,7 +11102,7 @@
     </row>
     <row r="404" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B404" s="4" t="n">
         <v>30</v>
@@ -11142,7 +11125,7 @@
     </row>
     <row r="405" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B405" s="4" t="n">
         <v>23</v>
@@ -11165,7 +11148,7 @@
     </row>
     <row r="406" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B406" s="4" t="n">
         <v>10</v>
@@ -11188,7 +11171,7 @@
     </row>
     <row r="407" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B407" s="4" t="n">
         <v>51</v>
@@ -11211,7 +11194,7 @@
     </row>
     <row r="408" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B408" s="4" t="n">
         <v>2</v>
@@ -11234,7 +11217,7 @@
     </row>
     <row r="409" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B409" s="4" t="n">
         <v>4</v>
@@ -11257,7 +11240,7 @@
     </row>
     <row r="410" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B410" s="4" t="n">
         <v>4</v>
@@ -11280,7 +11263,7 @@
     </row>
     <row r="411" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B411" s="4" t="n">
         <v>54</v>
@@ -11303,7 +11286,7 @@
     </row>
     <row r="412" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B412" s="4" t="n">
         <v>4977</v>
@@ -11326,7 +11309,7 @@
     </row>
     <row r="413" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B413" s="4" t="n">
         <v>253</v>
@@ -11349,7 +11332,7 @@
     </row>
     <row r="414" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B414" s="4" t="n">
         <v>212</v>
@@ -11372,7 +11355,7 @@
     </row>
     <row r="415" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B415" s="4" t="n">
         <v>134</v>
@@ -11395,7 +11378,7 @@
     </row>
     <row r="416" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B416" s="4" t="n">
         <v>9</v>
@@ -11418,7 +11401,7 @@
     </row>
     <row r="417" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B417" s="4" t="n">
         <v>28</v>
@@ -11441,7 +11424,7 @@
     </row>
     <row r="418" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B418" s="4" t="n">
         <v>1</v>
@@ -11464,7 +11447,7 @@
     </row>
     <row r="419" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B419" s="4" t="n">
         <v>12</v>
@@ -11487,7 +11470,7 @@
     </row>
     <row r="420" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B420" s="4" t="n">
         <v>11</v>
@@ -11510,7 +11493,7 @@
     </row>
     <row r="421" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B421" s="4" t="n">
         <v>50</v>
@@ -11533,7 +11516,7 @@
     </row>
     <row r="422" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B422" s="4" t="n">
         <v>77</v>
@@ -11556,7 +11539,7 @@
     </row>
     <row r="423" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B423" s="4" t="n">
         <v>150</v>
@@ -11579,7 +11562,7 @@
     </row>
     <row r="424" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B424" s="4" t="n">
         <v>140</v>
@@ -11602,7 +11585,7 @@
     </row>
     <row r="425" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B425" s="4" t="n">
         <v>22</v>
@@ -11625,7 +11608,7 @@
     </row>
     <row r="426" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B426" s="4" t="n">
         <v>902</v>
@@ -11648,7 +11631,7 @@
     </row>
     <row r="427" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B427" s="4" t="n">
         <v>401</v>
@@ -11671,7 +11654,7 @@
     </row>
     <row r="428" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B428" s="4" t="n">
         <v>201</v>
@@ -11694,7 +11677,7 @@
     </row>
     <row r="429" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B429" s="4" t="n">
         <v>44</v>
@@ -11717,7 +11700,7 @@
     </row>
     <row r="430" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B430" s="4" t="n">
         <v>83</v>
@@ -11740,7 +11723,7 @@
     </row>
     <row r="431" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B431" s="4" t="n">
         <v>26</v>
@@ -11763,7 +11746,7 @@
     </row>
     <row r="432" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B432" s="4" t="n">
         <v>448</v>
@@ -11786,7 +11769,7 @@
     </row>
     <row r="433" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B433" s="4" t="n">
         <v>41</v>
@@ -11809,7 +11792,7 @@
     </row>
     <row r="434" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B434" s="4" t="n">
         <v>424</v>
@@ -11832,7 +11815,7 @@
     </row>
     <row r="435" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B435" s="4" t="n">
         <v>528</v>
@@ -11855,7 +11838,7 @@
     </row>
     <row r="436" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B436" s="4" t="n">
         <v>27</v>
@@ -11878,7 +11861,7 @@
     </row>
     <row r="437" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B437" s="4" t="n">
         <v>40</v>
@@ -11901,7 +11884,7 @@
     </row>
     <row r="438" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B438" s="4" t="n">
         <v>129</v>
@@ -11924,7 +11907,7 @@
     </row>
     <row r="439" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B439" s="4" t="n">
         <v>189</v>
@@ -11947,7 +11930,7 @@
     </row>
     <row r="440" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B440" s="4" t="n">
         <v>63</v>
@@ -11970,7 +11953,7 @@
     </row>
     <row r="441" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B441" s="4" t="n">
         <v>5</v>
@@ -11993,7 +11976,7 @@
     </row>
     <row r="442" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B442" s="4" t="n">
         <v>34</v>
@@ -12016,7 +11999,7 @@
     </row>
     <row r="443" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B443" s="4" t="n">
         <v>0</v>
@@ -12039,7 +12022,7 @@
     </row>
     <row r="444" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B444" s="4" t="n">
         <v>35</v>
@@ -12062,7 +12045,7 @@
     </row>
     <row r="445" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B445" s="4" t="n">
         <v>4</v>
@@ -12085,7 +12068,7 @@
     </row>
     <row r="446" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B446" s="4" t="n">
         <v>14</v>
@@ -12108,7 +12091,7 @@
     </row>
     <row r="447" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B447" s="4" t="n">
         <v>9</v>
@@ -12131,7 +12114,7 @@
     </row>
     <row r="448" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B448" s="4" t="n">
         <v>18</v>
@@ -12154,7 +12137,7 @@
     </row>
     <row r="449" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B449" s="4" t="n">
         <v>215</v>
@@ -12180,7 +12163,7 @@
     </row>
     <row r="451" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B451" s="4" t="n">
         <v>17927</v>
@@ -12203,7 +12186,7 @@
     </row>
     <row r="452" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B452" s="4" t="n">
         <v>8482</v>
@@ -12226,7 +12209,7 @@
     </row>
     <row r="453" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B453" s="4" t="n">
         <v>768</v>
@@ -12249,7 +12232,7 @@
     </row>
     <row r="454" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B454" s="4" t="n">
         <v>1</v>
@@ -12272,7 +12255,7 @@
     </row>
     <row r="455" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B455" s="4" t="n">
         <v>128</v>
@@ -12295,7 +12278,7 @@
     </row>
     <row r="456" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B456" s="4" t="n">
         <v>13</v>
@@ -12318,7 +12301,7 @@
     </row>
     <row r="457" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B457" s="4" t="n">
         <v>30</v>
@@ -12341,7 +12324,7 @@
     </row>
     <row r="458" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B458" s="4" t="n">
         <v>1033</v>
@@ -12364,7 +12347,7 @@
     </row>
     <row r="459" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B459" s="4" t="n">
         <v>215</v>
@@ -12387,7 +12370,7 @@
     </row>
     <row r="460" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B460" s="4" t="n">
         <v>269</v>
@@ -12410,7 +12393,7 @@
     </row>
     <row r="461" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B461" s="4" t="n">
         <v>12</v>
@@ -12433,7 +12416,7 @@
     </row>
     <row r="462" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B462" s="4" t="n">
         <v>89</v>
@@ -12456,7 +12439,7 @@
     </row>
     <row r="463" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B463" s="4" t="n">
         <v>15</v>
@@ -12479,7 +12462,7 @@
     </row>
     <row r="464" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B464" s="4" t="n">
         <v>175</v>
@@ -12502,7 +12485,7 @@
     </row>
     <row r="465" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B465" s="4" t="n">
         <v>99</v>
@@ -12525,7 +12508,7 @@
     </row>
     <row r="466" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B466" s="4" t="n">
         <v>19</v>
@@ -12548,7 +12531,7 @@
     </row>
     <row r="467" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B467" s="4" t="n">
         <v>8</v>
@@ -12571,7 +12554,7 @@
     </row>
     <row r="468" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B468" s="4" t="n">
         <v>8</v>
@@ -12594,7 +12577,7 @@
     </row>
     <row r="469" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B469" s="4" t="n">
         <v>80</v>
@@ -12617,7 +12600,7 @@
     </row>
     <row r="470" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B470" s="4" t="n">
         <v>4</v>
@@ -12640,7 +12623,7 @@
     </row>
     <row r="471" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B471" s="4" t="n">
         <v>38</v>
@@ -12663,7 +12646,7 @@
     </row>
     <row r="472" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B472" s="4" t="n">
         <v>14</v>
@@ -12686,7 +12669,7 @@
     </row>
     <row r="473" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B473" s="4" t="n">
         <v>5</v>
@@ -12709,7 +12692,7 @@
     </row>
     <row r="474" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B474" s="4" t="n">
         <v>366</v>
@@ -12732,7 +12715,7 @@
     </row>
     <row r="475" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B475" s="4" t="n">
         <v>19</v>
@@ -12755,7 +12738,7 @@
     </row>
     <row r="476" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B476" s="4" t="n">
         <v>5</v>
@@ -12778,7 +12761,7 @@
     </row>
     <row r="477" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B477" s="4" t="n">
         <v>45</v>
@@ -12801,7 +12784,7 @@
     </row>
     <row r="478" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B478" s="4" t="n">
         <v>5</v>
@@ -12824,7 +12807,7 @@
     </row>
     <row r="479" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B479" s="4" t="n">
         <v>62</v>
@@ -12847,7 +12830,7 @@
     </row>
     <row r="480" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B480" s="4" t="n">
         <v>600</v>
@@ -12870,7 +12853,7 @@
     </row>
     <row r="481" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B481" s="4" t="n">
         <v>3</v>
@@ -12893,7 +12876,7 @@
     </row>
     <row r="482" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B482" s="4" t="n">
         <v>12</v>
@@ -12916,7 +12899,7 @@
     </row>
     <row r="483" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B483" s="4" t="n">
         <v>17</v>
@@ -12939,7 +12922,7 @@
     </row>
     <row r="484" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B484" s="4" t="n">
         <v>6</v>
@@ -12962,7 +12945,7 @@
     </row>
     <row r="485" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B485" s="4" t="n">
         <v>388</v>
@@ -12985,7 +12968,7 @@
     </row>
     <row r="486" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B486" s="4" t="n">
         <v>24</v>
@@ -13008,7 +12991,7 @@
     </row>
     <row r="487" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B487" s="4" t="n">
         <v>173</v>
@@ -13031,7 +13014,7 @@
     </row>
     <row r="488" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B488" s="4" t="n">
         <v>11</v>
@@ -13054,7 +13037,7 @@
     </row>
     <row r="489" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B489" s="4" t="n">
         <v>151</v>
@@ -13077,7 +13060,7 @@
     </row>
     <row r="490" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B490" s="4" t="n">
         <v>30</v>
@@ -13100,7 +13083,7 @@
     </row>
     <row r="491" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B491" s="4" t="n">
         <v>197</v>
@@ -13123,7 +13106,7 @@
     </row>
     <row r="492" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B492" s="4" t="n">
         <v>5</v>
@@ -13146,7 +13129,7 @@
     </row>
     <row r="493" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B493" s="4" t="n">
         <v>5</v>
@@ -13169,7 +13152,7 @@
     </row>
     <row r="494" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B494" s="4" t="n">
         <v>77</v>
@@ -13192,7 +13175,7 @@
     </row>
     <row r="495" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B495" s="4" t="n">
         <v>1</v>
@@ -13215,7 +13198,7 @@
     </row>
     <row r="496" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B496" s="4" t="n">
         <v>8</v>
@@ -13238,7 +13221,7 @@
     </row>
     <row r="497" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B497" s="4" t="n">
         <v>19</v>
@@ -13261,7 +13244,7 @@
     </row>
     <row r="498" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B498" s="4" t="n">
         <v>16</v>
@@ -13284,7 +13267,7 @@
     </row>
     <row r="499" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B499" s="4" t="n">
         <v>0</v>
@@ -13307,7 +13290,7 @@
     </row>
     <row r="500" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B500" s="4" t="n">
         <v>3</v>
@@ -13330,7 +13313,7 @@
     </row>
     <row r="501" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B501" s="4" t="n">
         <v>31</v>
@@ -13353,7 +13336,7 @@
     </row>
     <row r="502" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B502" s="4" t="n">
         <v>18</v>
@@ -13376,7 +13359,7 @@
     </row>
     <row r="503" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B503" s="4" t="n">
         <v>49</v>
@@ -13399,7 +13382,7 @@
     </row>
     <row r="504" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B504" s="4" t="n">
         <v>15</v>
@@ -13422,7 +13405,7 @@
     </row>
     <row r="505" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B505" s="4" t="n">
         <v>1</v>
@@ -13445,7 +13428,7 @@
     </row>
     <row r="506" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B506" s="4" t="n">
         <v>27</v>
@@ -13468,7 +13451,7 @@
     </row>
     <row r="507" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B507" s="4" t="n">
         <v>19</v>
@@ -13491,7 +13474,7 @@
     </row>
     <row r="508" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B508" s="4" t="n">
         <v>28</v>
@@ -13514,7 +13497,7 @@
     </row>
     <row r="509" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B509" s="4" t="n">
         <v>38</v>
@@ -13537,7 +13520,7 @@
     </row>
     <row r="510" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B510" s="4" t="n">
         <v>76</v>
@@ -13560,7 +13543,7 @@
     </row>
     <row r="511" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B511" s="4" t="n">
         <v>107</v>
@@ -13583,7 +13566,7 @@
     </row>
     <row r="512" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B512" s="4" t="n">
         <v>42</v>
@@ -13606,7 +13589,7 @@
     </row>
     <row r="513" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B513" s="4" t="n">
         <v>55</v>
@@ -13629,7 +13612,7 @@
     </row>
     <row r="514" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B514" s="4" t="n">
         <v>72</v>
@@ -13652,7 +13635,7 @@
     </row>
     <row r="515" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B515" s="4" t="n">
         <v>62</v>
@@ -13675,7 +13658,7 @@
     </row>
     <row r="516" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B516" s="4" t="n">
         <v>21</v>
@@ -13698,7 +13681,7 @@
     </row>
     <row r="517" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B517" s="4" t="n">
         <v>10</v>
@@ -13721,7 +13704,7 @@
     </row>
     <row r="518" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B518" s="4" t="n">
         <v>793</v>
@@ -13744,7 +13727,7 @@
     </row>
     <row r="519" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B519" s="4" t="n">
         <v>43</v>
@@ -13767,7 +13750,7 @@
     </row>
     <row r="520" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B520" s="4" t="n">
         <v>70</v>
@@ -13790,7 +13773,7 @@
     </row>
     <row r="521" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B521" s="4" t="n">
         <v>292</v>
@@ -13813,7 +13796,7 @@
     </row>
     <row r="522" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B522" s="4" t="n">
         <v>157</v>
@@ -13836,7 +13819,7 @@
     </row>
     <row r="523" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B523" s="4" t="n">
         <v>31</v>
@@ -13859,7 +13842,7 @@
     </row>
     <row r="524" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B524" s="4" t="n">
         <v>3</v>
@@ -13882,7 +13865,7 @@
     </row>
     <row r="525" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B525" s="4" t="n">
         <v>6</v>
@@ -13905,7 +13888,7 @@
     </row>
     <row r="526" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B526" s="4" t="n">
         <v>11</v>
@@ -13928,7 +13911,7 @@
     </row>
     <row r="527" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B527" s="4" t="n">
         <v>3</v>
@@ -13951,7 +13934,7 @@
     </row>
     <row r="528" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B528" s="4" t="n">
         <v>11</v>
@@ -13974,7 +13957,7 @@
     </row>
     <row r="529" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B529" s="4" t="n">
         <v>35</v>
@@ -13997,7 +13980,7 @@
     </row>
     <row r="530" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B530" s="4" t="n">
         <v>29</v>
@@ -14020,7 +14003,7 @@
     </row>
     <row r="531" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B531" s="4" t="n">
         <v>10</v>
@@ -14043,7 +14026,7 @@
     </row>
     <row r="532" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B532" s="4" t="n">
         <v>50</v>
@@ -14066,7 +14049,7 @@
     </row>
     <row r="533" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B533" s="4" t="n">
         <v>995</v>
@@ -14089,7 +14072,7 @@
     </row>
     <row r="534" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B534" s="4" t="n">
         <v>9445</v>
@@ -14112,7 +14095,7 @@
     </row>
     <row r="535" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B535" s="4" t="n">
         <v>205</v>
@@ -14135,7 +14118,7 @@
     </row>
     <row r="536" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B536" s="4" t="n">
         <v>120</v>
@@ -14158,7 +14141,7 @@
     </row>
     <row r="537" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B537" s="4" t="n">
         <v>17</v>
@@ -14181,7 +14164,7 @@
     </row>
     <row r="538" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B538" s="4" t="n">
         <v>98</v>
@@ -14204,7 +14187,7 @@
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B539" s="4" t="n">
         <v>11</v>
@@ -14227,7 +14210,7 @@
     </row>
     <row r="540" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B540" s="4" t="n">
         <v>578</v>
@@ -14250,7 +14233,7 @@
     </row>
     <row r="541" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B541" s="4" t="n">
         <v>3506</v>
@@ -14273,7 +14256,7 @@
     </row>
     <row r="542" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B542" s="4" t="n">
         <v>674</v>
@@ -14296,7 +14279,7 @@
     </row>
     <row r="543" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B543" s="4" t="n">
         <v>76</v>
@@ -14319,7 +14302,7 @@
     </row>
     <row r="544" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B544" s="4" t="n">
         <v>42</v>
@@ -14342,7 +14325,7 @@
     </row>
     <row r="545" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B545" s="4" t="n">
         <v>4</v>
@@ -14365,7 +14348,7 @@
     </row>
     <row r="546" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B546" s="4" t="n">
         <v>50</v>
@@ -14388,7 +14371,7 @@
     </row>
     <row r="547" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B547" s="4" t="n">
         <v>15</v>
@@ -14411,7 +14394,7 @@
     </row>
     <row r="548" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B548" s="4" t="n">
         <v>19</v>
@@ -14434,7 +14417,7 @@
     </row>
     <row r="549" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B549" s="4" t="n">
         <v>35</v>
@@ -14457,7 +14440,7 @@
     </row>
     <row r="550" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B550" s="4" t="n">
         <v>2</v>
@@ -14480,7 +14463,7 @@
     </row>
     <row r="551" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B551" s="4" t="n">
         <v>5</v>
@@ -14503,7 +14486,7 @@
     </row>
     <row r="552" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B552" s="4" t="n">
         <v>95</v>
@@ -14526,7 +14509,7 @@
     </row>
     <row r="553" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B553" s="4" t="n">
         <v>94</v>
@@ -14549,7 +14532,7 @@
     </row>
     <row r="554" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B554" s="4" t="n">
         <v>41</v>
@@ -14572,7 +14555,7 @@
     </row>
     <row r="555" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B555" s="4" t="n">
         <v>35</v>
@@ -14595,7 +14578,7 @@
     </row>
     <row r="556" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B556" s="4" t="n">
         <v>24</v>
@@ -14618,7 +14601,7 @@
     </row>
     <row r="557" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B557" s="4" t="n">
         <v>1</v>
@@ -14641,7 +14624,7 @@
     </row>
     <row r="558" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B558" s="4" t="n">
         <v>53</v>
@@ -14664,7 +14647,7 @@
     </row>
     <row r="559" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B559" s="4" t="n">
         <v>30</v>
@@ -14687,7 +14670,7 @@
     </row>
     <row r="560" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B560" s="4" t="n">
         <v>7</v>
@@ -14710,7 +14693,7 @@
     </row>
     <row r="561" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B561" s="4" t="n">
         <v>611</v>
@@ -14733,7 +14716,7 @@
     </row>
     <row r="562" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B562" s="4" t="n">
         <v>331</v>
@@ -14756,7 +14739,7 @@
     </row>
     <row r="563" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B563" s="4" t="n">
         <v>1930</v>
@@ -14779,7 +14762,7 @@
     </row>
     <row r="564" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B564" s="4" t="n">
         <v>31</v>
@@ -14802,7 +14785,7 @@
     </row>
     <row r="565" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B565" s="4" t="n">
         <v>539</v>
@@ -14825,7 +14808,7 @@
     </row>
     <row r="566" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B566" s="4" t="n">
         <v>21</v>
@@ -14848,7 +14831,7 @@
     </row>
     <row r="567" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B567" s="4" t="n">
         <v>94</v>
@@ -14871,7 +14854,7 @@
     </row>
     <row r="568" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B568" s="4" t="n">
         <v>0</v>
@@ -14894,7 +14877,7 @@
     </row>
     <row r="569" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B569" s="4" t="n">
         <v>6</v>
@@ -14917,7 +14900,7 @@
     </row>
     <row r="570" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B570" s="4" t="n">
         <v>40</v>
@@ -14949,7 +14932,7 @@
     </row>
     <row r="572" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B572" s="13"/>
       <c r="C572" s="13"/>
